--- a/ASLDAutomation/src/test/resources/ASLDAutomation.xlsx
+++ b/ASLDAutomation/src/test/resources/ASLDAutomation.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Udhaya\Eclipse-workspace new\ASLDAutomation\src\test\resources\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320A79C4-772C-4CAB-AAE0-2849EC09C398}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1FBE8D3A-F649-41BD-95CD-F7E9687BE9EB}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15435" windowHeight="11820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Testsheet" sheetId="2" r:id="rId1"/>
+    <sheet name="Testsheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:L13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>TCID</t>
   </si>
@@ -83,16 +80,29 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Object Name</t>
+  </si>
+  <si>
+    <t>Payment information</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -156,14 +166,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -481,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -577,4 +588,58 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B50C6E-07AB-4275-88E3-797C2A59C009}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{EB3B42A3-42DD-4D36-A527-737D16D13C7C}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{C1CA256E-6F2B-4A79-ADA1-B5865A59FA2E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>